--- a/TBEA/BusinessPerformance/Documentation/经营管控成本管理平台/附件1.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/经营管控成本管理平台/附件1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="变压器明细表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="107">
   <si>
     <t>投标报价时间</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变压器产业集团XX月投标情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,9 +264,6 @@
   </si>
   <si>
     <t>线缆产业集团XX周投标情况</t>
-  </si>
-  <si>
-    <t>线缆产业集团XX月投标情况</t>
   </si>
   <si>
     <t xml:space="preserve">       铝</t>
@@ -521,6 +514,22 @@
   </si>
   <si>
     <t>精确到年/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX公司投标情况 （按照公司分三个公司）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线缆产业集团XX月投标情况 （按照月份填写 12个月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变压器产业集团XX月投标情况(按照月份分 12个月)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX公司投标情况(按照公司分 三个公司)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +684,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,6 +700,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,7 +819,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,34 +949,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,14 +967,77 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1287,7 +1347,7 @@
   <dimension ref="A2:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1310,16 +1370,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>16</v>
@@ -1328,7 +1388,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>34</v>
@@ -1385,10 +1445,10 @@
         <v>31</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB2" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC2" s="13" t="s">
         <v>32</v>
@@ -1399,52 +1459,52 @@
     </row>
     <row r="3" spans="1:30" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="H3" s="42"/>
       <c r="J3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="AD3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A6" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="41"/>
     </row>
@@ -1459,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1514,10 +1574,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>13</v>
@@ -1528,42 +1588,42 @@
     </row>
     <row r="2" spans="1:17" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1577,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1587,66 +1647,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="M3" s="47"/>
+      <c r="N3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="15" t="s">
         <v>45</v>
       </c>
@@ -1765,245 +1825,245 @@
       <c r="P8" s="12"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
+      <c r="A11" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50" t="s">
+      <c r="F12" s="52"/>
+      <c r="G12" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="50" t="s">
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="50" t="s">
+      <c r="K12" s="55"/>
+      <c r="L12" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="50" t="s">
+      <c r="M12" s="55"/>
+      <c r="N12" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="52"/>
-      <c r="P12" s="51"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="55"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="15" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="58" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="12"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="64"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="53" t="s">
+      <c r="F21" s="45"/>
+      <c r="G21" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53" t="s">
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53" t="s">
+      <c r="K21" s="47"/>
+      <c r="L21" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53" t="s">
+      <c r="M21" s="47"/>
+      <c r="N21" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="15" t="s">
         <v>45</v>
       </c>
@@ -2043,7 +2103,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="25"/>
@@ -2063,7 +2123,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="25"/>
@@ -2083,7 +2143,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="20"/>
@@ -2103,7 +2163,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -2123,7 +2183,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2180,225 +2240,255 @@
       <c r="P29" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
+      <c r="A31" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="53" t="s">
+      <c r="F32" s="68"/>
+      <c r="G32" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53" t="s">
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53" t="s">
+      <c r="K32" s="70"/>
+      <c r="L32" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53" t="s">
+      <c r="M32" s="70"/>
+      <c r="N32" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="15" t="s">
+      <c r="A33" s="68"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J33" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="L33" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="M33" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="O33" s="15" t="s">
+      <c r="O33" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="P33" s="15" t="s">
+      <c r="P33" s="58" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="71"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="25" t="s">
+      <c r="B35" s="71"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="25" t="s">
+      <c r="B36" s="72"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="25" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="12"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A31:P31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
@@ -2409,36 +2499,6 @@
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:P32"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2449,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2459,44 +2519,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="53"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="15" t="s">
         <v>45</v>
       </c>
@@ -2512,7 +2572,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -2524,7 +2584,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2536,7 +2596,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2559,144 +2619,144 @@
       <c r="H8" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-    </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="55" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D21" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E21" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="53"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="53"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="15" t="s">
         <v>45</v>
       </c>
@@ -2712,7 +2772,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="25"/>
@@ -2724,7 +2784,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="25"/>
@@ -2736,7 +2796,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="20"/>
@@ -2748,7 +2808,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -2760,7 +2820,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2793,131 +2853,145 @@
       <c r="H29" s="37"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="A31" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="53"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="70"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="15" t="s">
+      <c r="A33" s="68"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="58" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="71"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="25" t="s">
+      <c r="B35" s="71"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="25" t="s">
+      <c r="B36" s="72"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="25" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="22"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="E32:F32"/>
@@ -2932,20 +3006,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
